--- a/public/Data Pengangkutan Sampah.xlsx
+++ b/public/Data Pengangkutan Sampah.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>No</t>
   </si>
@@ -26,22 +26,10 @@
     <t>Sopir Pengangkut</t>
   </si>
   <si>
-    <t>2023-09-26</t>
+    <t>2024-02-04</t>
   </si>
   <si>
-    <t>Supir2</t>
-  </si>
-  <si>
-    <t>2023-08-27</t>
-  </si>
-  <si>
-    <t>Supir 3</t>
-  </si>
-  <si>
-    <t>2023-08-26</t>
-  </si>
-  <si>
-    <t>Supir</t>
+    <t>Sopir 3</t>
   </si>
 </sst>
 </file>
@@ -381,7 +369,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,10 +404,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,10 +415,32 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
